--- a/console/Networking/diskChExcel/diskMixins/components/disk_detailTab.xlsx
+++ b/console/Networking/diskChExcel/diskMixins/components/disk_detailTab.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.18\Console_190117-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\MobileFile\translation_review-确认by-GTCOM\translation_review-确认\translation_review\diskChExcel\diskMixins\components\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -360,9 +360,6 @@
     </r>
   </si>
   <si>
-    <t>Number of Attached Instances</t>
-  </si>
-  <si>
     <t>disk_detailTab_i18nKey_19</t>
   </si>
   <si>
@@ -856,9 +853,6 @@
       </rPr>
       <t>个字符</t>
     </r>
-  </si>
-  <si>
-    <t>The description only supports Chinese characters, numbers, upper case and lower case letters and all characters such as English underline “_” and line-through “-”, and shall exceed 256 characters</t>
   </si>
   <si>
     <t>disk_detailTab_i18nKey_46</t>
@@ -1237,15 +1231,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>For Windows Virtual Machines, log in the Virtual Machines for off-line operation; for Linux virtual machine, execute detaching operation and then detach the cloud disk on the console,'</t>
+    <t>Quantity of Attached Instances</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Windows Virtual Machines, log in the Virtual Machines for off-line operation; for Linux virtual machine, execute umount operation and then detach the cloud disk on the console,'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The description  supports Chinese characters, numbers, upper case and lower case letters and all characters such as English underline “_” and line-through “-”, and can not exceed 256 characters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1272,6 +1274,19 @@
       <name val="宋体"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1293,7 +1308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1302,6 +1317,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1641,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="C46" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="D40" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1696,7 +1715,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.2">
@@ -1740,7 +1759,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.2">
@@ -1831,7 +1850,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -1842,405 +1861,407 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="2" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>116</v>
+      <c r="C41" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B33 A35:B35 A34 A45:B53 A44 A37:B43 A36" numberStoredAsText="1"/>
   </ignoredErrors>
